--- a/Results_Saving/App_50_Demand=2_inTopo=100[for_priority_analysis].xlsx
+++ b/Results_Saving/App_50_Demand=2_inTopo=100[for_priority_analysis].xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My codes\Python_work\IWN_Service_Availability_Evaluation\Results_Saving\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046A173-EF47-43AD-A416-5D0C499189F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -448,12 +454,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -461,8 +467,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,17 +521,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -556,7 +577,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -590,6 +611,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -624,9 +646,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -799,14 +822,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -852,10 +877,10 @@
         <v>56</v>
       </c>
       <c r="D2">
-        <v>0.5035589534274902</v>
+        <v>0.50355895342749024</v>
       </c>
       <c r="E2">
-        <v>0.5035589534274902</v>
+        <v>0.50355895342749024</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -876,7 +901,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -887,10 +912,10 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>2.445893965229444</v>
+        <v>2.4458939652294438</v>
       </c>
       <c r="E3">
-        <v>2.445893965229444</v>
+        <v>2.4458939652294438</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -911,7 +936,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -922,10 +947,10 @@
         <v>57</v>
       </c>
       <c r="D4">
-        <v>1.510936282729174</v>
+        <v>1.5109362827291739</v>
       </c>
       <c r="E4">
-        <v>1.510936282729174</v>
+        <v>1.5109362827291739</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -946,7 +971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -957,10 +982,10 @@
         <v>58</v>
       </c>
       <c r="D5">
-        <v>0.3341036902699419</v>
+        <v>0.33410369026994191</v>
       </c>
       <c r="E5">
-        <v>0.3341036902699419</v>
+        <v>0.33410369026994191</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -981,7 +1006,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -992,10 +1017,10 @@
         <v>59</v>
       </c>
       <c r="D6">
-        <v>1.434485173209812</v>
+        <v>1.4344851732098121</v>
       </c>
       <c r="E6">
-        <v>1.434485173209812</v>
+        <v>1.4344851732098121</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1016,7 +1041,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1027,10 +1052,10 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>1.193017208761158</v>
+        <v>1.1930172087611579</v>
       </c>
       <c r="E7">
-        <v>1.193017208761158</v>
+        <v>1.1930172087611579</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1051,7 +1076,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1086,7 +1111,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1156,7 +1181,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1167,10 +1192,10 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>2.840399413564666</v>
+        <v>2.8403994135646662</v>
       </c>
       <c r="E11">
-        <v>2.840399413564666</v>
+        <v>2.8403994135646662</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1191,7 +1216,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1226,7 +1251,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1237,10 +1262,10 @@
         <v>64</v>
       </c>
       <c r="D13">
-        <v>1.519635896691577</v>
+        <v>1.5196358966915771</v>
       </c>
       <c r="E13">
-        <v>1.519635896691577</v>
+        <v>1.5196358966915771</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1261,7 +1286,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1296,7 +1321,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1307,10 +1332,10 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>2.593516017140032</v>
+        <v>2.5935160171400322</v>
       </c>
       <c r="E15">
-        <v>2.593516017140032</v>
+        <v>2.5935160171400322</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1331,7 +1356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1342,10 +1367,10 @@
         <v>66</v>
       </c>
       <c r="D16">
-        <v>3.179224848839363</v>
+        <v>3.1792248488393628</v>
       </c>
       <c r="E16">
-        <v>3.179224848839363</v>
+        <v>3.1792248488393628</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1366,7 +1391,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1377,10 +1402,10 @@
         <v>67</v>
       </c>
       <c r="D17">
-        <v>0.9350630760186638</v>
+        <v>0.93506307601866379</v>
       </c>
       <c r="E17">
-        <v>0.9350630760186638</v>
+        <v>0.93506307601866379</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1401,7 +1426,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1412,10 +1437,10 @@
         <v>68</v>
       </c>
       <c r="D18">
-        <v>2.60219203971966</v>
+        <v>2.6021920397196601</v>
       </c>
       <c r="E18">
-        <v>2.60219203971966</v>
+        <v>2.6021920397196601</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1436,7 +1461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1471,7 +1496,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1482,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>1.904306414639232</v>
+        <v>1.9043064146392319</v>
       </c>
       <c r="E20">
-        <v>1.904306414639232</v>
+        <v>1.9043064146392319</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1506,7 +1531,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1517,10 +1542,10 @@
         <v>70</v>
       </c>
       <c r="D21">
-        <v>3.670008669211596</v>
+        <v>3.6700086692115961</v>
       </c>
       <c r="E21">
-        <v>3.670008669211596</v>
+        <v>3.6700086692115961</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1541,7 +1566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1552,10 +1577,10 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>1.720944955923359</v>
+        <v>1.7209449559233589</v>
       </c>
       <c r="E22">
-        <v>1.720944955923359</v>
+        <v>1.7209449559233589</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1576,7 +1601,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1587,10 +1612,10 @@
         <v>71</v>
       </c>
       <c r="D23">
-        <v>2.549998254222443</v>
+        <v>2.5499982542224431</v>
       </c>
       <c r="E23">
-        <v>2.549998254222443</v>
+        <v>2.5499982542224431</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1611,7 +1636,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1622,10 +1647,10 @@
         <v>72</v>
       </c>
       <c r="D24">
-        <v>0.5461993407545118</v>
+        <v>0.54619934075451182</v>
       </c>
       <c r="E24">
-        <v>0.5461993407545118</v>
+        <v>0.54619934075451182</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1646,7 +1671,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1657,10 +1682,10 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>1.422495026733355</v>
+        <v>1.4224950267333549</v>
       </c>
       <c r="E25">
-        <v>1.422495026733355</v>
+        <v>1.4224950267333549</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1681,7 +1706,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1692,10 +1717,10 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>2.626096884595077</v>
+        <v>2.6260968845950772</v>
       </c>
       <c r="E26">
-        <v>2.626096884595077</v>
+        <v>2.6260968845950772</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1716,7 +1741,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1751,7 +1776,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1762,10 +1787,10 @@
         <v>74</v>
       </c>
       <c r="D28">
-        <v>2.004839122027049</v>
+        <v>2.0048391220270489</v>
       </c>
       <c r="E28">
-        <v>2.004839122027049</v>
+        <v>2.0048391220270489</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1786,7 +1811,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1797,10 +1822,10 @@
         <v>75</v>
       </c>
       <c r="D29">
-        <v>1.644919997527759</v>
+        <v>1.6449199975277591</v>
       </c>
       <c r="E29">
-        <v>1.644919997527759</v>
+        <v>1.6449199975277591</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1821,7 +1846,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1832,10 +1857,10 @@
         <v>76</v>
       </c>
       <c r="D30">
-        <v>1.434644796203915</v>
+        <v>1.4346447962039151</v>
       </c>
       <c r="E30">
-        <v>1.434644796203915</v>
+        <v>1.4346447962039151</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1856,7 +1881,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1891,7 +1916,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1902,10 +1927,10 @@
         <v>78</v>
       </c>
       <c r="D32">
-        <v>2.307774804423559</v>
+        <v>2.3077748044235591</v>
       </c>
       <c r="E32">
-        <v>2.307774804423559</v>
+        <v>2.3077748044235591</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1926,7 +1951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1937,10 +1962,10 @@
         <v>79</v>
       </c>
       <c r="D33">
-        <v>1.420063013367035</v>
+        <v>1.4200630133670351</v>
       </c>
       <c r="E33">
-        <v>1.420063013367035</v>
+        <v>1.4200630133670351</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1961,7 +1986,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1996,7 +2021,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2007,10 +2032,10 @@
         <v>81</v>
       </c>
       <c r="D35">
-        <v>1.589956122598505</v>
+        <v>1.5899561225985051</v>
       </c>
       <c r="E35">
-        <v>1.589956122598505</v>
+        <v>1.5899561225985051</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2031,7 +2056,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2066,7 +2091,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2077,10 +2102,10 @@
         <v>68</v>
       </c>
       <c r="D37">
-        <v>1.465033640106061</v>
+        <v>1.4650336401060611</v>
       </c>
       <c r="E37">
-        <v>1.465033640106061</v>
+        <v>1.4650336401060611</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2101,7 +2126,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2136,7 +2161,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2147,10 +2172,10 @@
         <v>31</v>
       </c>
       <c r="D39">
-        <v>0.07590058462233418</v>
+        <v>7.5900584622334177E-2</v>
       </c>
       <c r="E39">
-        <v>0.07590058462233418</v>
+        <v>7.5900584622334177E-2</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2171,7 +2196,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2182,10 +2207,10 @@
         <v>47</v>
       </c>
       <c r="D40">
-        <v>0.8543543223472845</v>
+        <v>0.85435432234728448</v>
       </c>
       <c r="E40">
-        <v>0.8543543223472845</v>
+        <v>0.85435432234728448</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2206,7 +2231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2217,10 +2242,10 @@
         <v>83</v>
       </c>
       <c r="D41">
-        <v>3.088875929774723</v>
+        <v>3.0888759297747228</v>
       </c>
       <c r="E41">
-        <v>3.088875929774723</v>
+        <v>3.0888759297747228</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2241,7 +2266,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2252,10 +2277,10 @@
         <v>63</v>
       </c>
       <c r="D42">
-        <v>3.990939994526327</v>
+        <v>3.9909399945263271</v>
       </c>
       <c r="E42">
-        <v>3.990939994526327</v>
+        <v>3.9909399945263271</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2276,7 +2301,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2287,10 +2312,10 @@
         <v>84</v>
       </c>
       <c r="D43">
-        <v>-0.996280531391696</v>
+        <v>0.99628053139169603</v>
       </c>
       <c r="E43">
-        <v>-0.996280531391696</v>
+        <v>0.99628053139169603</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2311,7 +2336,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2322,10 +2347,10 @@
         <v>85</v>
       </c>
       <c r="D44">
-        <v>0.9224087604661866</v>
+        <v>0.92240876046618658</v>
       </c>
       <c r="E44">
-        <v>0.9224087604661866</v>
+        <v>0.92240876046618658</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2346,7 +2371,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2357,10 +2382,10 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>1.583178612016574</v>
+        <v>1.5831786120165741</v>
       </c>
       <c r="E45">
-        <v>1.583178612016574</v>
+        <v>1.5831786120165741</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2381,7 +2406,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2392,10 +2417,10 @@
         <v>86</v>
       </c>
       <c r="D46">
-        <v>0.1367633839284121</v>
+        <v>0.13676338392841211</v>
       </c>
       <c r="E46">
-        <v>0.1367633839284121</v>
+        <v>0.13676338392841211</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2416,7 +2441,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2451,7 +2476,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2462,10 +2487,10 @@
         <v>88</v>
       </c>
       <c r="D48">
-        <v>0.697572133715024</v>
+        <v>0.69757213371502402</v>
       </c>
       <c r="E48">
-        <v>0.697572133715024</v>
+        <v>0.69757213371502402</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2486,7 +2511,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2497,10 +2522,10 @@
         <v>89</v>
       </c>
       <c r="D49">
-        <v>1.395170183933046</v>
+        <v>1.3951701839330459</v>
       </c>
       <c r="E49">
-        <v>1.395170183933046</v>
+        <v>1.3951701839330459</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2521,7 +2546,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2532,10 +2557,10 @@
         <v>90</v>
       </c>
       <c r="D50">
-        <v>3.226508233534901</v>
+        <v>3.2265082335349011</v>
       </c>
       <c r="E50">
-        <v>3.226508233534901</v>
+        <v>3.2265082335349011</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2556,7 +2581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2567,10 +2592,10 @@
         <v>36</v>
       </c>
       <c r="D51">
-        <v>0.4653974357859809</v>
+        <v>0.46539743578598092</v>
       </c>
       <c r="E51">
-        <v>0.4653974357859809</v>
+        <v>0.46539743578598092</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2592,6 +2617,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results_Saving/App_50_Demand=2_inTopo=100[for_priority_analysis].xlsx
+++ b/Results_Saving/App_50_Demand=2_inTopo=100[for_priority_analysis].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My codes\Python_work\IWN_Service_Availability_Evaluation\Results_Saving\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Codes\Python_work\2023_Thesis_Codes\Service_availability\Results_Saving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B046A173-EF47-43AD-A416-5D0C499189F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6D4722-7BB9-4DBC-B1BE-27C19618D2C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +70,6 @@
     <t>5 17 28 61 62 73 83 90 6 59</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>34 46 75 95</t>
   </si>
   <si>
@@ -449,6 +446,10 @@
   </si>
   <si>
     <t>{'reroute': [], 'repair': [], 'degradation': []}</t>
+  </si>
+  <si>
+    <t>33 94 87 93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -537,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -577,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,9 +613,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,9 +665,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,13 +860,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.36328125" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" customWidth="1"/>
+    <col min="9" max="9" width="27.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -874,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>0.50355895342749024</v>
@@ -892,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -909,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>2.4458939652294438</v>
@@ -927,16 +967,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -944,7 +984,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1.5109362827291739</v>
@@ -962,16 +1002,16 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -979,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>0.33410369026994191</v>
@@ -997,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1014,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1.4344851732098121</v>
@@ -1032,24 +1072,24 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1.1930172087611579</v>
@@ -1067,24 +1107,24 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>1.230573624333398</v>
@@ -1102,24 +1142,24 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>2.407226570250431</v>
@@ -1137,24 +1177,24 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>0.2462250318980721</v>
@@ -1172,24 +1212,24 @@
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>2.8403994135646662</v>
@@ -1207,24 +1247,24 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>1.995252537532934</v>
@@ -1242,24 +1282,24 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>1.5196358966915771</v>
@@ -1277,24 +1317,24 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>1.711144824881657</v>
@@ -1312,24 +1352,24 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2.5935160171400322</v>
@@ -1347,24 +1387,24 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>3.1792248488393628</v>
@@ -1382,24 +1422,24 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0.93506307601866379</v>
@@ -1417,24 +1457,24 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>2.6021920397196601</v>
@@ -1452,24 +1492,24 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1.870725291816032</v>
@@ -1487,24 +1527,24 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>1.9043064146392319</v>
@@ -1522,24 +1562,24 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>3.6700086692115961</v>
@@ -1557,24 +1597,24 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>1.7209449559233589</v>
@@ -1592,24 +1632,24 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>2.5499982542224431</v>
@@ -1627,24 +1667,24 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24">
         <v>0.54619934075451182</v>
@@ -1662,24 +1702,24 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>1.4224950267333549</v>
@@ -1697,24 +1737,24 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>2.6260968845950772</v>
@@ -1732,24 +1772,24 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>1.164106451229513</v>
@@ -1767,24 +1807,24 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>2.0048391220270489</v>
@@ -1802,24 +1842,24 @@
         <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29">
         <v>1.6449199975277591</v>
@@ -1837,24 +1877,24 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30">
         <v>1.4346447962039151</v>
@@ -1872,24 +1912,24 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>0.2006694713583308</v>
@@ -1907,24 +1947,24 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>2.3077748044235591</v>
@@ -1942,24 +1982,24 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33">
         <v>1.4200630133670351</v>
@@ -1977,24 +2017,24 @@
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <v>2.974323030590722</v>
@@ -2012,24 +2052,24 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>1.5899561225985051</v>
@@ -2047,24 +2087,24 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>2.199004675886203</v>
@@ -2082,24 +2122,24 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>1.4650336401060611</v>
@@ -2117,24 +2157,24 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>2.121789703712464</v>
@@ -2152,24 +2192,24 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>7.5900584622334177E-2</v>
@@ -2187,24 +2227,24 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40">
         <v>0.85435432234728448</v>
@@ -2222,24 +2262,24 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>3.0888759297747228</v>
@@ -2257,24 +2297,24 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>3.9909399945263271</v>
@@ -2292,24 +2332,24 @@
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43">
         <v>0.99628053139169603</v>
@@ -2327,24 +2367,24 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>0.92240876046618658</v>
@@ -2362,24 +2402,24 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45">
         <v>1.5831786120165741</v>
@@ -2397,24 +2437,24 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>0.13676338392841211</v>
@@ -2432,16 +2472,16 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2449,7 +2489,7 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D47">
         <v>2.515627011045598</v>
@@ -2467,24 +2507,24 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D48">
         <v>0.69757213371502402</v>
@@ -2502,24 +2542,24 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D49">
         <v>1.3951701839330459</v>
@@ -2537,24 +2577,24 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50">
         <v>3.2265082335349011</v>
@@ -2572,24 +2612,24 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>0.46539743578598092</v>
@@ -2607,13 +2647,13 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
